--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17150.11964338428</v>
+        <v>32679.29628442088</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17257637.27977393</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8580422.521901213</v>
+        <v>8593342.344746277</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>372.7655286897987</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>267.0715916005399</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -826,16 +826,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>116.5339324960249</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>207.784312426802</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>322.96392688766</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>260.3915512764002</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1057,10 +1057,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>135.748324798323</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>60.94899222869618</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>335.8915546016272</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>33.51778476371759</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1303,7 +1303,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>135.6544140573679</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1345,7 +1345,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1354,10 +1354,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>11.3612302585477</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1427,7 +1427,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>90.97964783089047</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.42894579208307</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>129.713962706846</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>155.3130762083204</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>33.08339867820153</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>82.64119670414902</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>193.8659438253733</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>383.6164702094796</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>205.8083339461504</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2008,13 +2008,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015943</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>132.9029306024364</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>163.9521757218116</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2093,13 +2093,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>128.695552497274</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556904</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>272.5018050100013</v>
+        <v>136.0564930766994</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907133</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225825</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225886</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009272</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092794</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981684</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1761338157528</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320844</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.412621479132298</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359886987</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765603</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770218</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3942785639455</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.5384173073509</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842116</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.4234729224758</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913611</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6478022326386</v>
+        <v>102.8562685532376</v>
       </c>
       <c r="F40" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452991</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>26.24351759540933</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.0080304781978</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.2360492602942</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.8935188904399</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5252156407902</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7328524999013</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4539333765603</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.5273620187299</v>
+        <v>35.34780583513519</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>26.2435175954084</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.5252156407902</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.40273359886991</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4539333765603</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>26.24351759540914</v>
+        <v>18.05677735225773</v>
       </c>
       <c r="T46" t="n">
-        <v>243.0080304781978</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.5252156407902</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>443.0234284442651</v>
+        <v>976.7209085440079</v>
       </c>
       <c r="C2" t="n">
-        <v>408.9213596680925</v>
+        <v>942.6188397678352</v>
       </c>
       <c r="D2" t="n">
-        <v>377.0519788829411</v>
+        <v>506.7090549422796</v>
       </c>
       <c r="E2" t="n">
-        <v>347.3176380816403</v>
+        <v>72.93431010057483</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>49.10728455018663</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>49.10728455018663</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.10728455018663</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018663</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031045</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>524.3060841805604</v>
       </c>
       <c r="L2" t="n">
-        <v>1107.976466382457</v>
+        <v>524.3060841805604</v>
       </c>
       <c r="M2" t="n">
-        <v>1107.976466382457</v>
+        <v>524.3060841805604</v>
       </c>
       <c r="N2" t="n">
-        <v>1107.976466382457</v>
+        <v>524.3060841805604</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>1132.00873048912</v>
       </c>
       <c r="P2" t="n">
-        <v>1528.02936532736</v>
+        <v>1739.711376797679</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756274</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509331</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2455.364227509331</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>2455.364227509331</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>2455.364227509331</v>
       </c>
       <c r="V2" t="n">
-        <v>1250.914606198081</v>
+        <v>2092.747277443158</v>
       </c>
       <c r="W2" t="n">
-        <v>1250.099555649518</v>
+        <v>2091.932226894595</v>
       </c>
       <c r="X2" t="n">
-        <v>873.5687185891154</v>
+        <v>1672.789763473906</v>
       </c>
       <c r="Y2" t="n">
-        <v>465.2825948887688</v>
+        <v>1403.020479028916</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414794</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781217</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246749</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516286</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677903</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397416</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018663</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064423</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962709</v>
+        <v>1007.431928985416</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028995</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477378</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807948</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.9361456031418</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420218</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212426</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>487.2907080746261</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>487.2907080746261</v>
+        <v>955.6037336452929</v>
       </c>
       <c r="D4" t="n">
-        <v>321.4127152761488</v>
+        <v>789.7257408468156</v>
       </c>
       <c r="E4" t="n">
-        <v>151.654711526886</v>
+        <v>619.9677370975529</v>
       </c>
       <c r="F4" t="n">
-        <v>151.654711526886</v>
+        <v>443.2606830593091</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>277.6694080851368</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755113</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018663</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018663</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>323.8657391213222</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>742.0756208892832</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1201.559488070196</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1643.818291227841</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2063.487540453622</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.994434423964</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509331</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214703</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.7050375127</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.7050375127</v>
       </c>
       <c r="U4" t="n">
-        <v>1238.091239336891</v>
+        <v>2064.821893647243</v>
       </c>
       <c r="V4" t="n">
-        <v>951.1357312073217</v>
+        <v>2064.821893647243</v>
       </c>
       <c r="W4" t="n">
-        <v>679.1093267936133</v>
+        <v>1792.795489233534</v>
       </c>
       <c r="X4" t="n">
-        <v>679.1093267936133</v>
+        <v>1547.403734566947</v>
       </c>
       <c r="Y4" t="n">
-        <v>679.1093267936133</v>
+        <v>1319.984063881055</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.680625966315</v>
+        <v>1671.95961582883</v>
       </c>
       <c r="C5" t="n">
-        <v>812.5785571901424</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D5" t="n">
-        <v>486.3523684147282</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>267.8706684926505</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>267.8706684926505</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>2365.526674939741</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111165</v>
+        <v>2102.50490597368</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>2098.259186313737</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.3319541549333</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C7" t="n">
-        <v>347.7702426381583</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D7" t="n">
-        <v>347.7702426381583</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E7" t="n">
-        <v>347.7702426381583</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F7" t="n">
-        <v>171.0631885999145</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
-        <v>171.0631885999145</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>91.74450617142992</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>509.954387939391</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>930.0072868842942</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1516.524240083786</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1516.524240083786</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1229.568731954216</v>
+        <v>1903.524550651513</v>
       </c>
       <c r="W7" t="n">
-        <v>957.542327540508</v>
+        <v>1631.498146237804</v>
       </c>
       <c r="X7" t="n">
-        <v>712.1505728739205</v>
+        <v>1386.106391571217</v>
       </c>
       <c r="Y7" t="n">
-        <v>712.1505728739205</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1402.489412532529</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>964.3469397159524</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>932.477558930801</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>498.7028140890962</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>70.83538449830394</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>70.83538449830394</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.97903625212455</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.97903625212455</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.2337237050424</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>472.2337237050424</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>472.2337237050424</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>929.8492973250836</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>929.8492973250836</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>929.8492973250836</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1222.182174233129</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1679.79774785317</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1848.951812606227</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1848.951812606227</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1848.951812606227</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1848.951812606227</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1848.951812606227</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1848.136762057665</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1833.03470267738</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1828.788983017437</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>543.1507812434173</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.6943200800596</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.6040312266129</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.4836165535666</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>164.0997781697282</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.71468843591208</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.97903625212455</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>63.04270941258214</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.6010343787945</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>845.2166079988356</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>845.2166079988356</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1125.430446016552</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1125.430446016552</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1125.430446016552</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1125.430446016552</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1583.046019636594</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.218797730933</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.763360179316</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.584716509918</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.248169509886</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1131.130651571886</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.8078973050797</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.9404615439597</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.4546823231805</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>693.0304662204142</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>520.4687547036391</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>520.4687547036391</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>350.7107509543764</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>174.0036969161326</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>36.97903625212455</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>36.97903625212455</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.97903625212455</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.5587214168144</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.31717598795</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>816.527057755911</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>818.8309853584692</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1261.089788516114</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1680.759037741895</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1680.759037741895</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1848.951812606227</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1848.951812606227</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1689.710443904224</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1443.830997482679</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1443.830997482679</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1156.87548935311</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>884.8490849394013</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>884.8490849394013</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>884.8490849394013</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2245.579471736856</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C11" t="n">
-        <v>1807.436998920279</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1371.527214094724</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E11" t="n">
-        <v>937.7524692530187</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>509.8850396622265</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>108.4872082854899</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.01121812534095</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I11" t="n">
-        <v>96.59442875248095</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
-        <v>96.59442875248095</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>930.9447207106589</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2006.004686963518</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2305.579045508694</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2305.579045508694</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O11" t="n">
-        <v>3285.758712078999</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P11" t="n">
-        <v>4114.068586912395</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q11" t="n">
-        <v>4660.567372870991</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R11" t="n">
-        <v>4829.721437624047</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4746.069563807884</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4526.002336680923</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4266.780033997939</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>3904.163083931766</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W11" t="n">
-        <v>3499.307629342799</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3080.16516592211</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2671.879042221763</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.7661737437737</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C12" t="n">
-        <v>496.309712580416</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D12" t="n">
-        <v>401.2194237269693</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E12" t="n">
-        <v>307.099009053923</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F12" t="n">
-        <v>223.7151706700846</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G12" t="n">
-        <v>138.3300809362685</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.59442875248095</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
-        <v>122.6581019129385</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>447.2164268791509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1101.922473504874</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1101.922473504874</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1101.922473504874</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1101.922473504874</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1101.922473504874</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
-        <v>1101.922473504874</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.66141213695</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.83419023129</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.378752679673</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.200109010274</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.863562010243</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.746044072242</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.423289805436</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.5558540443161</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.0700748235369</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1175.652589364362</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.090877847587</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D13" t="n">
-        <v>837.2128850491099</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>667.4548812998473</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F13" t="n">
-        <v>490.7478272616034</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>325.1565522874311</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H13" t="n">
-        <v>185.2543779778056</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I13" t="n">
-        <v>96.59442875248095</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
-        <v>183.1741139171708</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
-        <v>457.9325684883064</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.1424502562675</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.62631743718</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.885120594825</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.554369820607</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.061263790948</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.254038655281</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.254038655281</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2713.254038655281</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2467.374592233736</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2399.264545979107</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>2112.309037849537</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1840.282633435829</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X13" t="n">
-        <v>1594.890878769241</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y13" t="n">
-        <v>1367.47120808335</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2251.958900913286</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C14" t="n">
-        <v>1813.816428096709</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D14" t="n">
-        <v>1377.906643271153</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E14" t="n">
-        <v>944.1318984294485</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2500032695294</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8521718927933</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H14" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I14" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J14" t="n">
-        <v>402.5482164740858</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>1236.898508432264</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2311.958474685123</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2311.958474685123</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2311.958474685123</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.138141255429</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4120.448016088825</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4666.946802047421</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.100866800477</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S14" t="n">
-        <v>4752.448992984314</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="T14" t="n">
-        <v>4532.381765857353</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.159463174369</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V14" t="n">
-        <v>3910.542513108196</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W14" t="n">
-        <v>3505.687058519229</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X14" t="n">
-        <v>3086.54459509854</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.258471398193</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.8937623273023</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4373011639446</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3470123104979</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2265976374516</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8427592536132</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4576695197971</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7856904964671</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3440154626795</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.050062088403</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.050062088403</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.050062088403</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.050062088403</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.050062088403</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.789000720479</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.961778814818</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.506341263201</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.327697593803</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.991150593771</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.873632655771</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.550878388965</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6834426278447</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.1976634070654</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.780177947891</v>
+        <v>998.048432817714</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.218466431116</v>
+        <v>914.5724765508969</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3404736326383</v>
+        <v>748.6944837524196</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5824698833756</v>
+        <v>578.9364800031569</v>
       </c>
       <c r="F16" t="n">
-        <v>490.875415845132</v>
+        <v>402.2294259649132</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2841408709597</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3819665613342</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I16" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3017025006994</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
-        <v>458.060157071835</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.270038839796</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.753906020709</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.012709178354</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.681958404135</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.188852374477</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.381627238809</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.381627238809</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.140258536806</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.260812115261</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U16" t="n">
-        <v>2112.436626433066</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V16" t="n">
-        <v>2112.436626433066</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1840.410222019357</v>
+        <v>1470.859858170193</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.01846735277</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.598796666878</v>
+        <v>998.048432817714</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2523.361224717018</v>
+        <v>2472.724095295527</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.218751900441</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.308967074886</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.534222233181</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6667926423893</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2689612656533</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>97.13880670886954</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I17" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9767047889275</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>1366.326996747106</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2441.386962999965</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2441.386962999965</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2441.386962999965</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3421.566629570271</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4249.876504403667</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4666.946802047421</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.100866800477</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S17" t="n">
-        <v>4752.448992984314</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T17" t="n">
-        <v>4752.448992984314</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.561786978102</v>
+        <v>4493.924657556611</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.944836911928</v>
+        <v>4131.307707490438</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.089382322962</v>
+        <v>3726.452252901471</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.946918902273</v>
+        <v>3307.309789480782</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.660795201926</v>
+        <v>2899.023665780435</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.8937623273023</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C18" t="n">
-        <v>496.4373011639446</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D18" t="n">
-        <v>401.3470123104979</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E18" t="n">
-        <v>307.2265976374516</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F18" t="n">
-        <v>223.8427592536132</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G18" t="n">
-        <v>138.4576695197971</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I18" t="n">
-        <v>122.7856904964671</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3440154626795</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.789000720479</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.961778814818</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S18" t="n">
-        <v>1696.506341263201</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T18" t="n">
-        <v>1566.327697593803</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U18" t="n">
-        <v>1389.991150593771</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.873632655771</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W18" t="n">
-        <v>1005.550878388965</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X18" t="n">
-        <v>850.6834426278447</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y18" t="n">
-        <v>724.1976634070654</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>917.3622249733035</v>
+        <v>965.4711828007311</v>
       </c>
       <c r="C19" t="n">
-        <v>744.8005134565284</v>
+        <v>792.909471283956</v>
       </c>
       <c r="D19" t="n">
-        <v>578.9225206580511</v>
+        <v>627.0314784854788</v>
       </c>
       <c r="E19" t="n">
-        <v>578.9225206580511</v>
+        <v>457.2734747362161</v>
       </c>
       <c r="F19" t="n">
-        <v>402.2154666198073</v>
+        <v>280.5664206979724</v>
       </c>
       <c r="G19" t="n">
-        <v>236.624191645635</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H19" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I19" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3017025006994</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
-        <v>458.060157071835</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.270038839796</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.753906020709</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N19" t="n">
-        <v>1778.012709178354</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.681958404135</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P19" t="n">
-        <v>2545.188852374477</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q19" t="n">
-        <v>2713.381627238809</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.381627238809</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.140258536806</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.260812115261</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.827811368366</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.872303238796</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.845898825088</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X19" t="n">
-        <v>1336.600514378182</v>
+        <v>1384.70947220561</v>
       </c>
       <c r="Y19" t="n">
-        <v>1109.180843692291</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2251.958900913286</v>
+        <v>2252.656868168571</v>
       </c>
       <c r="C20" t="n">
-        <v>1813.81642809671</v>
+        <v>1814.514395351994</v>
       </c>
       <c r="D20" t="n">
-        <v>1377.906643271154</v>
+        <v>1648.906137047134</v>
       </c>
       <c r="E20" t="n">
-        <v>944.1318984294494</v>
+        <v>1215.131392205429</v>
       </c>
       <c r="F20" t="n">
-        <v>516.2644688386572</v>
+        <v>787.263962614637</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2689612656533</v>
+        <v>385.866131237899</v>
       </c>
       <c r="H20" t="n">
-        <v>97.13880670886954</v>
+        <v>96.73597668111525</v>
       </c>
       <c r="I20" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111525</v>
       </c>
       <c r="J20" t="n">
-        <v>531.9767047889275</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>1366.326996747106</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2441.386962999965</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.386962999965</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2858.457260643718</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3838.636927214024</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4666.946802047421</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q20" t="n">
-        <v>4666.946802047421</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.100866800477</v>
+        <v>4836.798834055762</v>
       </c>
       <c r="S20" t="n">
-        <v>4752.448992984314</v>
+        <v>4753.146960239599</v>
       </c>
       <c r="T20" t="n">
-        <v>4532.381765857353</v>
+        <v>4533.079733112638</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.15946317437</v>
+        <v>4273.857430429654</v>
       </c>
       <c r="V20" t="n">
-        <v>3910.542513108197</v>
+        <v>3911.240480363481</v>
       </c>
       <c r="W20" t="n">
-        <v>3505.687058519231</v>
+        <v>3506.385025774514</v>
       </c>
       <c r="X20" t="n">
-        <v>3086.544595098541</v>
+        <v>3087.242562353825</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.258471398195</v>
+        <v>2678.956438653478</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.8937623273023</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C21" t="n">
-        <v>496.4373011639446</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D21" t="n">
-        <v>401.3470123104979</v>
+        <v>401.3609716556036</v>
       </c>
       <c r="E21" t="n">
-        <v>307.2265976374516</v>
+        <v>307.2405569825573</v>
       </c>
       <c r="F21" t="n">
-        <v>223.8427592536132</v>
+        <v>223.8567185987189</v>
       </c>
       <c r="G21" t="n">
-        <v>138.4576695197971</v>
+        <v>138.4716288649028</v>
       </c>
       <c r="H21" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111525</v>
       </c>
       <c r="I21" t="n">
-        <v>122.7856904964671</v>
+        <v>122.7996498415729</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3440154626795</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.789000720479</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.961778814818</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S21" t="n">
-        <v>1696.506341263201</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T21" t="n">
-        <v>1566.327697593803</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U21" t="n">
-        <v>1389.991150593771</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.873632655771</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W21" t="n">
-        <v>1005.550878388965</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X21" t="n">
-        <v>850.6834426278447</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y21" t="n">
-        <v>724.1976634070654</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2180544129409</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6563428961658</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D22" t="n">
-        <v>608.7783500976884</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0203463484257</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3132923101819</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G22" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111525</v>
       </c>
       <c r="H22" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111525</v>
       </c>
       <c r="I22" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111525</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3017025006994</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
-        <v>458.060157071835</v>
+        <v>458.0741164169407</v>
       </c>
       <c r="L22" t="n">
-        <v>876.270038839796</v>
+        <v>876.2839981849019</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.753906020709</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
-        <v>1778.012709178354</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.681958404135</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P22" t="n">
-        <v>2545.188852374477</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q22" t="n">
-        <v>2713.381627238809</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2691.963805944181</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2691.963805944181</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.084359522636</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.830011027685</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.874502898116</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.848098484407</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.45634381782</v>
+        <v>1366.470303162926</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.036673131928</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477105</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309355</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324583</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
         <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>267.8521152449519</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6148,10 +6148,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130894</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.801834709349</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.995166752589</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6224,13 +6224,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
         <v>3007.131363532227</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477107</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309356</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324583</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
         <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>267.8521152449519</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6385,10 +6385,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
         <v>1341.292728955479</v>
@@ -6409,16 +6409,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130894</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.801834709349</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
         <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
         <v>1617.386921419177</v>
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>525.9458847132731</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1601.005850966132</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6892,13 +6892,13 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1371.995166752589</v>
       </c>
       <c r="Y34" t="n">
         <v>1144.575496066698</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7072,13 +7072,13 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7120,7 +7120,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2700.681281130894</v>
       </c>
       <c r="T37" t="n">
         <v>2454.80183470935</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.854933458239</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014523</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561827</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.278299092982</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.8276588750499</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G38" t="n">
-        <v>390.8466168711739</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H38" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436403</v>
       </c>
       <c r="I38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2582.520192247197</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2582.520192247197</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.699858817503</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4391.0097336509</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4937.508519609494</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362551</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.777062165146</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855023</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.771388161709</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945603</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897773</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570287</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.545341899882</v>
+        <v>949.5782250957672</v>
       </c>
       <c r="C40" t="n">
-        <v>778.4004197559671</v>
+        <v>777.0165135789921</v>
       </c>
       <c r="D40" t="n">
-        <v>612.9392163303496</v>
+        <v>777.0165135789921</v>
       </c>
       <c r="E40" t="n">
-        <v>443.598001953947</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.3077372885633</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.133251687251</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.133251687251</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>882.906758984058</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.060823704771</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2695.552220073045</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>2450.08956302436</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U40" t="n">
-        <v>2172.073351650326</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V40" t="n">
-        <v>1885.534632893616</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.925017852768</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.950052559041</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.947171246009</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2525.854933458239</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>791.8276588750512</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>390.846616871175</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2582.520192247197</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3562.699858817503</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4391.0097336509</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4937.508519609494</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5106.662584362551</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4803.777062165146</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4544.971548855023</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4182.771388161709</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3778.332722945603</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3359.607048897773</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2951.737714570287</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.5453418998824</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C43" t="n">
-        <v>778.4004197559673</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D43" t="n">
-        <v>612.93921633035</v>
+        <v>473.314973373139</v>
       </c>
       <c r="E43" t="n">
-        <v>443.5980019539472</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F43" t="n">
-        <v>267.3077372885633</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>189.1214321162809</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>464.2883819517565</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>882.9067589840577</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2695.552220073046</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2450.089563024361</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2172.073351650327</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1885.534632893618</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.925017852769</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1368.950052559041</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1141.947171246009</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2525.854933458239</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2088.129250014523</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>791.8276588750508</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>390.8466168711747</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I44" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2582.520192247197</v>
+        <v>2588.899621423624</v>
       </c>
       <c r="O44" t="n">
-        <v>3562.699858817503</v>
+        <v>3569.07928799393</v>
       </c>
       <c r="P44" t="n">
-        <v>4391.0097336509</v>
+        <v>4397.389162827327</v>
       </c>
       <c r="Q44" t="n">
-        <v>4937.508519609494</v>
+        <v>4943.887948785921</v>
       </c>
       <c r="R44" t="n">
-        <v>5106.662584362551</v>
+        <v>5113.042013538978</v>
       </c>
       <c r="S44" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722815</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.777062165146</v>
+        <v>4809.322912595853</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.971548855023</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4182.771388161709</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3778.332722945603</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3359.607048897774</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2951.737714570287</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D45" t="n">
-        <v>406.7582466617393</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E45" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F45" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G45" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312371</v>
       </c>
       <c r="J45" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.5453418998825</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>778.4004197559674</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>612.9392163303501</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>443.5980019539472</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>267.3077372885633</v>
+        <v>267.8521152449519</v>
       </c>
       <c r="G46" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K46" t="n">
-        <v>464.288381951757</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>882.9067589840583</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2205.544164341418</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2553.4595535761</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2722.060823704772</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2722.060823704772</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2695.552220073046</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2450.089563024361</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2172.073351650326</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1885.534632893617</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.925017852769</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1368.950052559041</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.947171246009</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>40.34758805803631</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773328</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773329</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>613.8410568773328</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854964</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.81797281350191</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8213,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>58.3846844139612</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,13 +8453,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>462.2379531515568</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8468,13 +8468,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>295.2857342505511</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>462.2379531515569</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,13 +8532,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>462.2379531515568</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>283.0442808259766</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>462.2379531515569</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,7 +8617,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>2.327199598543643</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8626,7 +8626,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8696,7 +8696,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>302.6003621668435</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>308.9153526647235</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9182,10 +9182,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>421.2831289330834</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>421.2831289330838</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9419,10 +9419,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>40.8177619680755</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>565.8642197954468</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10127,13 +10127,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>427.9646913560541</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10370,7 +10370,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>137.0929241373647</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>137.0929241373647</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>137.0929241373647</v>
+        <v>143.4079146352419</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.8776227526682</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>268.0111327346212</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473426</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>268.2756790865639</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.73195639979983</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>88.19489769745829</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>81.7827269140524</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>50.14457787893127</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>50.82174571000283</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>120.4463752142712</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>110.0349065174852</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>267.5985112554883</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,13 +23981,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>268.6883005656948</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>3.146865729424405</v>
+        <v>139.5921776627264</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627244</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>65.2041551585325</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0905310873977</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.36072825393993</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.79102160255035</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>130.9928159404425</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.79102160255043</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>130.9928159404435</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.36072825393997</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.79102160255039</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>130.9928159404427</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>749466.858040014</v>
+        <v>753354.5641006889</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>749466.858040014</v>
+        <v>754455.4588630809</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>750245.0772491596</v>
+        <v>754455.4588630809</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>720105.3429053749</v>
+        <v>720884.7637500141</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>720807.8978809208</v>
+        <v>720884.7637500139</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>720807.8978809209</v>
+        <v>720884.763750014</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>720807.8978809209</v>
+        <v>720884.7637500142</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751306.9245482797</v>
+        <v>751306.9245482795</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>751606.4193493673</v>
+        <v>751306.9245482795</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>751606.4193493673</v>
+        <v>751306.9245482795</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>751606.4193493673</v>
+        <v>751306.9245482795</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26320,16 @@
         <v>201055.2449589032</v>
       </c>
       <c r="E2" t="n">
-        <v>189366.49701234</v>
+        <v>189571.4617393787</v>
       </c>
       <c r="F2" t="n">
-        <v>189551.2482796211</v>
+        <v>189571.4617393786</v>
       </c>
       <c r="G2" t="n">
-        <v>189551.2482796211</v>
+        <v>189571.4617393786</v>
       </c>
       <c r="H2" t="n">
-        <v>189551.2482796211</v>
+        <v>189571.4617393787</v>
       </c>
       <c r="I2" t="n">
         <v>197571.5940515071</v>
@@ -26347,13 +26347,13 @@
         <v>197571.5940515071</v>
       </c>
       <c r="N2" t="n">
-        <v>197660.1290869442</v>
+        <v>197571.5940515071</v>
       </c>
       <c r="O2" t="n">
-        <v>197660.1290869443</v>
+        <v>197571.5940515071</v>
       </c>
       <c r="P2" t="n">
-        <v>197660.1290869443</v>
+        <v>197571.5940515071</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039024</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390716</v>
       </c>
       <c r="D3" t="n">
-        <v>11785.95316599809</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>222498.0582746427</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
-        <v>456.9680810514288</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.06737319988315e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>18411.11667046245</v>
+        <v>18364.71563283928</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856129</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784554</v>
       </c>
       <c r="L3" t="n">
-        <v>9602.802925459975</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>185704.9284082351</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
-        <v>330.0971833051894</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.345267868590081e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>141940.3832228854</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>173527.0985998407</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>26534.36614259908</v>
+        <v>26563.08616012788</v>
       </c>
       <c r="F4" t="n">
-        <v>26560.25381464609</v>
+        <v>26563.08616012787</v>
       </c>
       <c r="G4" t="n">
-        <v>26560.25381464609</v>
+        <v>26563.08616012788</v>
       </c>
       <c r="H4" t="n">
-        <v>26560.25381464615</v>
+        <v>26563.0861601279</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26451,13 +26451,13 @@
         <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
-        <v>28075.16394942174</v>
+        <v>27684.07875020264</v>
       </c>
       <c r="O4" t="n">
-        <v>28075.16394942166</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="P4" t="n">
-        <v>28075.1639494217</v>
+        <v>27684.07875020267</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814184</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61731.66755161465</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73411.76585188552</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73508.73317536725</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73508.73317536725</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73508.73317536725</v>
+        <v>73519.34227764758</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.95995743987</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77655.95995743987</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77655.95995743987</v>
+        <v>77718.23860579246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-181993.2302984912</v>
+        <v>-217546.5310260265</v>
       </c>
       <c r="C6" t="n">
-        <v>-39801.92963878129</v>
+        <v>-21255.12420878156</v>
       </c>
       <c r="D6" t="n">
-        <v>-45989.47435855023</v>
+        <v>-3914.579834874414</v>
       </c>
       <c r="E6" t="n">
-        <v>-133077.6932567873</v>
+        <v>-72322.60046330797</v>
       </c>
       <c r="F6" t="n">
-        <v>89025.29320855637</v>
+        <v>89412.47474680633</v>
       </c>
       <c r="G6" t="n">
-        <v>89482.26128960772</v>
+        <v>89412.47474680636</v>
       </c>
       <c r="H6" t="n">
-        <v>89482.26128960768</v>
+        <v>89412.47474680604</v>
       </c>
       <c r="I6" t="n">
-        <v>73758.16002504947</v>
+        <v>73781.33672329001</v>
       </c>
       <c r="J6" t="n">
-        <v>-18845.18864947825</v>
+        <v>-68461.7771294836</v>
       </c>
       <c r="K6" t="n">
-        <v>92169.27669551193</v>
+        <v>78332.04378828374</v>
       </c>
       <c r="L6" t="n">
-        <v>82566.47377005193</v>
+        <v>92146.05235612928</v>
       </c>
       <c r="M6" t="n">
-        <v>-93535.65171272322</v>
+        <v>-42843.89225687418</v>
       </c>
       <c r="N6" t="n">
-        <v>91598.90799677745</v>
+        <v>92146.05235612934</v>
       </c>
       <c r="O6" t="n">
-        <v>91929.00518008279</v>
+        <v>92146.05235612919</v>
       </c>
       <c r="P6" t="n">
-        <v>91929.00518008271</v>
+        <v>92146.05235612934</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773328</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>462.2379531515568</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1207.430359406012</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.025216700119</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.025216700119</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.025216700119</v>
+        <v>1209.199708513941</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384744</v>
       </c>
     </row>
   </sheetData>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773328</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052416</v>
       </c>
       <c r="D4" t="n">
-        <v>37.9420956314525</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>745.1924062544549</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
-        <v>1.594857294107442</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I4" t="n">
-        <v>69.23528668462609</v>
+        <v>69.06079487080478</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773328</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052416</v>
       </c>
       <c r="L4" t="n">
-        <v>37.9420956314525</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>745.1924062544547</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773328</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052416</v>
       </c>
       <c r="L4" t="n">
-        <v>37.9420956314525</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>745.1924062544549</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
-        <v>1.594857294107442</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
     </row>
   </sheetData>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27442,10 +27442,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>42.18551009668369</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>137.1316708628032</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>47.40142972840569</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>67.86435831262375</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>108.5867600896399</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27676,10 +27676,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>154.5594875100822</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27777,10 +27777,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>2.754827768206184</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>223.1369608195777</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>86.14502017843148</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>252.7210682474983</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>28.28094816706269</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791314868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791314078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791314453</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>40.34758805803631</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773328</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773329</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>613.8410568773328</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854964</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.81797281350191</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>58.3846844139612</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>462.2379531515568</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35188,13 +35188,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>295.2857342505511</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>462.2379531515569</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,19 +35246,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>462.2379531515568</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>283.0442808259766</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>462.2379531515569</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>2.327199598543643</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35416,7 +35416,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>302.6003621668435</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35425,13 +35425,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>308.9153526647235</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35902,10 +35902,10 @@
         <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
-        <v>421.2831289330834</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36121,7 +36121,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,19 +36130,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>421.2831289330838</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>40.8177619680755</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,7 +36291,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.4542274390807</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512943</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>565.8642197954468</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.4542274390807</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512943</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36847,13 +36847,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>427.9646913560541</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37090,7 +37090,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37549,7 +37549,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>137.0929241373647</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.86684891821211</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.846845487173</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3209540304256</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>137.0929241373647</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.86684891821206</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.9464139752279</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8468454871728</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.320954030426</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>137.0929241373647</v>
+        <v>143.4079146352419</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.86684891821211</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
-        <v>277.9464139752283</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.846845487173</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
